--- a/RollCallPremium_admin_Apis_List.xlsx
+++ b/RollCallPremium_admin_Apis_List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>DashBoard</t>
   </si>
@@ -138,6 +138,36 @@
   </si>
   <si>
     <t>RegDetails</t>
+  </si>
+  <si>
+    <t>Shifts</t>
+  </si>
+  <si>
+    <t>getShiftsTypes</t>
+  </si>
+  <si>
+    <t>assignshift</t>
+  </si>
+  <si>
+    <t>getAssignshiftByEmp</t>
+  </si>
+  <si>
+    <t>getEmpByDept</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>getEmpTeam</t>
+  </si>
+  <si>
+    <t>createTeam</t>
+  </si>
+  <si>
+    <t>updateTeam</t>
+  </si>
+  <si>
+    <t>deleteTeam</t>
   </si>
 </sst>
 </file>
@@ -498,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,209 +703,259 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+    <row r="39" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+    <row r="50" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
+    <row r="54" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="70" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
